--- a/biology/Neurosciences/Gyrus_précentral/Gyrus_précentral.xlsx
+++ b/biology/Neurosciences/Gyrus_précentral/Gyrus_précentral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gyrus_pr%C3%A9central</t>
+          <t>Gyrus_précentral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gyrus précentral ou circonvolution frontale ascendante est un gyrus de la face latérale du lobe frontal du cortex cérébral, limité en avant par le sillon précentral et en arrière par le sillon central de Rolando.
 Cette circonvolution contient le long de la face antérieure du sillon central les aires motrices primaires M1, correspondant à l'aire 4 de Brodmann.
